--- a/data/restrictions.xlsx
+++ b/data/restrictions.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lv39\Documents\GitHub\economics-open-science\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,91 +25,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage restrictions and justification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Usage restrictions and justification</t>
+  </si>
+  <si>
+    <t>DHS</t>
   </si>
   <si>
     <t xml:space="preserve">No redistribution and access by unauthorized individuals. To ensure that provider meets host-country agreements, such as compliance with usage by  real people with legitimate research purposes. </t>
   </si>
   <si>
-    <t xml:space="preserve">WVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Except for joint WVS-EVS files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The data can be used freely for non-commercial purposes such as research, publication, teaching. Data redistribution is prohibited: publication of the original WVS datasets at other online platforms is against the WVSA Constitution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the data in the PSID data sets only for scientific research and aggregate statistical reporting; Make no attempts to identify study participants;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restricted data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to safeguard the confidentiality of respondents at the highest level, some data are provided only under conditions of a restricted use contract, including human subjects review and data security plan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No redistribution and access by unauthorized individuals. Compliance with  German Federal Data Protection Act.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same as European version, but 95% sample, and institutional agreement required.</t>
+    <t>WVS</t>
+  </si>
+  <si>
+    <t>Except for joint WVS-EVS files</t>
+  </si>
+  <si>
+    <t>The data can be used freely for non-commercial purposes such as research, publication, teaching. Data redistribution is prohibited: publication of the original WVS datasets at other online platforms is against the WVSA Constitution.</t>
+  </si>
+  <si>
+    <t>PSID</t>
+  </si>
+  <si>
+    <t>Public data</t>
+  </si>
+  <si>
+    <t>Use the data in the PSID data sets only for scientific research and aggregate statistical reporting; Make no attempts to identify study participants;</t>
+  </si>
+  <si>
+    <t>Restricted data</t>
+  </si>
+  <si>
+    <t>In order to safeguard the confidentiality of respondents at the highest level, some data are provided only under conditions of a restricted use contract, including human subjects review and data security plan.</t>
+  </si>
+  <si>
+    <t>SOEP</t>
+  </si>
+  <si>
+    <t>European version</t>
+  </si>
+  <si>
+    <t>No redistribution and access by unauthorized individuals. Compliance with  German Federal Data Protection Act.</t>
+  </si>
+  <si>
+    <t>International version</t>
+  </si>
+  <si>
+    <t>Same as European version, but 95% sample, and institutional agreement required.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Request takes just a few minutes with no associated costs and the expected response is within a few days</t>
+  </si>
+  <si>
+    <t>Request takes less than an hour with minimal cost</t>
+  </si>
+  <si>
+    <t>Request requires a multipage application; request needs university approvals; request involves significant cost; there is some uncertainty as to whether the proposal will be granted</t>
+  </si>
+  <si>
+    <t>Request must be made in person and/or access is provided only in person; request requires substantial funding; data and/or access mechanism may no longer exist</t>
+  </si>
+  <si>
+    <t>Very Easy to Obtain</t>
+  </si>
+  <si>
+    <t>Moderately Easy to Obtain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately Difficult to Obtain </t>
+  </si>
+  <si>
+    <t>Very Difficult to Obtain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +133,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -124,101 +141,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -250,7 +247,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -274,7 +271,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -334,113 +331,164 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.86"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="54.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>